--- a/data/trans_bre/P19C05-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C05-Edad-trans_bre.xlsx
@@ -660,25 +660,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.445850746917054</v>
+        <v>-3.376253431410337</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.46852423700418</v>
+        <v>-1.116443352669195</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.59646295925708</v>
+        <v>-3.917255828226186</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.457593181288712</v>
+        <v>-4.053204437992592</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.7695359479470354</v>
+        <v>-0.7328151599131307</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3882738883837992</v>
+        <v>-0.331564804703261</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.6803577851035277</v>
+        <v>-0.7109279970960121</v>
       </c>
       <c r="J5" s="6" t="inlineStr"/>
     </row>
@@ -690,25 +690,25 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.919516738908804</v>
+        <v>1.246923727197785</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.871731969959787</v>
+        <v>3.990058143601609</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.671600536288429</v>
+        <v>1.813527583316747</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.684446073527886</v>
+        <v>2.769846164229481</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5089362019419507</v>
+        <v>0.7404221019982651</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.054428025265853</v>
+        <v>2.453442450133619</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7031056417944969</v>
+        <v>0.7800856999235426</v>
       </c>
       <c r="J6" s="6" t="inlineStr"/>
     </row>
@@ -756,28 +756,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.951605766621515</v>
+        <v>-2.122950785189257</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01968450748866145</v>
+        <v>0.05870991203609574</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.243253596861623</v>
+        <v>-3.371358677300941</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.711984271724682</v>
+        <v>-4.09839784478498</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4464136410869113</v>
+        <v>-0.4516057267131042</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.01003534176245364</v>
+        <v>-0.0148110959046012</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5844561757257524</v>
+        <v>-0.5996622395105484</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5933840000657014</v>
+        <v>-0.6054751285165085</v>
       </c>
     </row>
     <row r="9">
@@ -788,28 +788,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.518855481266343</v>
+        <v>2.503229138435944</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.141882224115339</v>
+        <v>5.32632831564818</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.482108849621964</v>
+        <v>1.714661311856248</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.560895558392303</v>
+        <v>2.534180857498959</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.156979418324859</v>
+        <v>1.12833546331661</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.875939405230885</v>
+        <v>2.063769361662361</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5196107483821731</v>
+        <v>0.645012279121704</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.01217908404913</v>
+        <v>1.001916860454395</v>
       </c>
     </row>
     <row r="10">
@@ -833,7 +833,7 @@
         <v>2.468869271395564</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.8204659643195902</v>
+        <v>0.820465964319591</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2495503761321017</v>
@@ -845,7 +845,7 @@
         <v>0.5932455905612437</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.2140231809252271</v>
+        <v>0.2140231809252273</v>
       </c>
     </row>
     <row r="11">
@@ -856,28 +856,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.414394261290048</v>
+        <v>-1.703853052280375</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.823647183704136</v>
+        <v>-3.77659872316893</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.2365525832811799</v>
+        <v>-0.07444960994460516</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.555733497687951</v>
+        <v>-1.293943405823408</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1853401893948234</v>
+        <v>-0.2153886952599593</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4043110564617379</v>
+        <v>-0.3932863734491493</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.07233039427877783</v>
+        <v>-0.02134172934517918</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.312004985372868</v>
+        <v>-0.2578167242254806</v>
       </c>
     </row>
     <row r="12">
@@ -888,28 +888,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.162391554353534</v>
+        <v>4.642811195249205</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.61834357134336</v>
+        <v>2.774927528763822</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.059185742257046</v>
+        <v>5.507621562322811</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.875069300300424</v>
+        <v>3.120917991665918</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.941150720412156</v>
+        <v>0.888381369811447</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4616409370733328</v>
+        <v>0.4787467105171171</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.743687433839118</v>
+        <v>1.924126383789952</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.103795097193571</v>
+        <v>1.167765820554271</v>
       </c>
     </row>
     <row r="13">
@@ -956,28 +956,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.878920341517402</v>
+        <v>-5.036206143779655</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.098631233765607</v>
+        <v>-3.529097624107843</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-4.145894754802347</v>
+        <v>-3.84341935555871</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-3.141048537886909</v>
+        <v>-3.345160919594531</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3096538643367771</v>
+        <v>-0.3179413284278493</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1894606759902983</v>
+        <v>-0.2117084418952434</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3359720363941419</v>
+        <v>-0.3245605044274831</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3420404992442528</v>
+        <v>-0.3479234518258455</v>
       </c>
     </row>
     <row r="15">
@@ -988,28 +988,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.932919167229908</v>
+        <v>4.060776396139095</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.874182618827519</v>
+        <v>6.037198247871974</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.466028873616086</v>
+        <v>3.311856019447421</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.798631680561488</v>
+        <v>1.522732982116151</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3721595385589408</v>
+        <v>0.3742186541407371</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5055818691638383</v>
+        <v>0.5122891006594705</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4529676208310964</v>
+        <v>0.4288090098389656</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2903933276492791</v>
+        <v>0.2773611952999989</v>
       </c>
     </row>
     <row r="16">
@@ -1033,7 +1033,7 @@
         <v>0.09503310820091204</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-1.703754357347822</v>
+        <v>-1.70375435734782</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.07315177529670398</v>
@@ -1045,7 +1045,7 @@
         <v>0.005487233905517349</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.143821610974301</v>
+        <v>-0.1438216109743007</v>
       </c>
     </row>
     <row r="17">
@@ -1056,28 +1056,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-8.308782751360381</v>
+        <v>-8.675832257073255</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.59914444051611</v>
+        <v>-8.415414737345127</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.324831104334934</v>
+        <v>-5.645666370517848</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.713177237113156</v>
+        <v>-5.002260721671614</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2795294676235724</v>
+        <v>-0.3006916475708082</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3161411851146758</v>
+        <v>-0.2827696950320717</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2659959698628251</v>
+        <v>-0.2828030061188915</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3553361917299481</v>
+        <v>-0.3549584751149525</v>
       </c>
     </row>
     <row r="18">
@@ -1088,28 +1088,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.509850306388301</v>
+        <v>5.324756956644362</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.227182490711436</v>
+        <v>4.576355943851683</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.980046005847139</v>
+        <v>6.606365678202278</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.349137311994944</v>
+        <v>1.355680712276828</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2399625666440148</v>
+        <v>0.2441604880529757</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1842583957444907</v>
+        <v>0.1975585736898806</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4173125422129531</v>
+        <v>0.4652948036028058</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1361271454312856</v>
+        <v>0.1361132974877871</v>
       </c>
     </row>
     <row r="19">
@@ -1156,28 +1156,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-6.206815286799524</v>
+        <v>-5.273419319995562</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-5.96618126993645</v>
+        <v>-7.239576135467929</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-6.154488141285832</v>
+        <v>-5.889921135455673</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6563639069058578</v>
+        <v>0.4875371844997408</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1433794544729435</v>
+        <v>-0.1209065129791595</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1357925576292716</v>
+        <v>-0.1582892742937342</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2009263288110456</v>
+        <v>-0.2043719451031</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.03258598935055126</v>
+        <v>0.02433664178056728</v>
       </c>
     </row>
     <row r="21">
@@ -1188,28 +1188,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>11.61046741657231</v>
+        <v>11.84165149215466</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>11.3368801204176</v>
+        <v>10.40024469278652</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10.26864654745749</v>
+        <v>10.90473022220884</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9.245168519489733</v>
+        <v>9.21930681975018</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3502778132614463</v>
+        <v>0.3596987451912864</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3216243224729328</v>
+        <v>0.2952326263595543</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4892393165392778</v>
+        <v>0.5355416164927498</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.5882358486237863</v>
+        <v>0.6007332834351363</v>
       </c>
     </row>
     <row r="22">
@@ -1256,28 +1256,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3312397687149534</v>
+        <v>0.1207532800400356</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.261066119395297</v>
+        <v>0.9933051650606728</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-14.37651878640292</v>
+        <v>-14.40566435936063</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.948725349836154</v>
+        <v>-2.173580068696799</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.00656293865429123</v>
+        <v>0.004266885189555781</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.006400384691334041</v>
+        <v>0.01970846619261836</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.3678285981143131</v>
+        <v>-0.3568258174907216</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.05044615894883295</v>
+        <v>-0.05559307242212377</v>
       </c>
     </row>
     <row r="24">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>23.22079372418792</v>
+        <v>23.32595295270189</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>20.95835130460058</v>
+        <v>20.89380697266843</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.067013870599199</v>
+        <v>5.52263596974093</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.163853274185001</v>
+        <v>9.165096194944757</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.5568725814160099</v>
+        <v>0.5669414516706777</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5549101818238691</v>
+        <v>0.5528814766824574</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1977485715497599</v>
+        <v>0.1745728508117114</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2893649463735053</v>
+        <v>0.2845289249840677</v>
       </c>
     </row>
     <row r="25">
@@ -1333,7 +1333,7 @@
         <v>0.9852206273984185</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1.698380610685284</v>
+        <v>1.698380610685282</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1870058092111553</v>
@@ -1345,7 +1345,7 @@
         <v>0.09251762888413907</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.1637783572164557</v>
+        <v>0.1637783572164555</v>
       </c>
     </row>
     <row r="26">
@@ -1356,28 +1356,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.6053769819514327</v>
+        <v>0.7020556268893853</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>1.244981163480755</v>
+        <v>1.460045708141212</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.5561242380246445</v>
+        <v>-0.6717334881397936</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.3835506686462238</v>
+        <v>0.3437845836398181</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.03987705408568106</v>
+        <v>0.04907701555416637</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07832719918473832</v>
+        <v>0.09282738395419812</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.05124799338702159</v>
+        <v>-0.05734064008407151</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.02943480569279436</v>
+        <v>0.03189793672993722</v>
       </c>
     </row>
     <row r="27">
@@ -1388,28 +1388,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.718921048671882</v>
+        <v>4.490708650265328</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>5.020594690290779</v>
+        <v>5.326666073536844</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2.714031362740656</v>
+        <v>2.674109301394278</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.039317474767353</v>
+        <v>3.012089146083443</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3765439869809626</v>
+        <v>0.3569383547833876</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3606222464956765</v>
+        <v>0.3819185586578226</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2810305492599869</v>
+        <v>0.2739284525834097</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3159536535524473</v>
+        <v>0.3186190141955634</v>
       </c>
     </row>
     <row r="28">
